--- a/medicine/Handicap/L'Amour_d'une_mère_(téléfilm)/L'Amour_d'une_mère_(téléfilm).xlsx
+++ b/medicine/Handicap/L'Amour_d'une_mère_(téléfilm)/L'Amour_d'une_mère_(téléfilm).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Amour_d%27une_m%C3%A8re_(t%C3%A9l%C3%A9film)</t>
+          <t>L'Amour_d'une_mère_(téléfilm)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Amour d'une mère ou Le Défi d'une mère au Québec (Miracle Run) est un téléfilm dramatique américain réalisé par Gregg Champion, et diffusé le 9 août 2004[1] sur Lifetime.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Amour d'une mère ou Le Défi d'une mère au Québec (Miracle Run) est un téléfilm dramatique américain réalisé par Gregg Champion, et diffusé le 9 août 2004 sur Lifetime.
 Ce film est inspiré d'une histoire vraie.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Amour_d%27une_m%C3%A8re_(t%C3%A9l%C3%A9film)</t>
+          <t>L'Amour_d'une_mère_(téléfilm)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film commence par un flashback d'une mère (Corine Morgan-Thomas) sur ses deux enfants autistes de sept ans (Philip et Stephen). Philip répète ce qu'il entend dire (qu'on appelle l'écholalie) et Stephen est mutique. Les médecins affirment qu'il n'existe aucun traitement susceptible de les guérir.
 Le choc passé, Corinne s'aperçoit que ses amis lui tournent le dos petit à petit, et décide de se battre pour offrir la vie la plus normale à ses fils. Elle insiste alors auprès des professeurs de lycée pour que Steven et Philip puissent suivre une scolarité normale...
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Amour_d%27une_m%C3%A8re_(t%C3%A9l%C3%A9film)</t>
+          <t>L'Amour_d'une_mère_(téléfilm)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Miracle Run
 Titre français : L'Amour d'une mère ou Le Défi d'une mère en DVD
@@ -575,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Amour_d%27une_m%C3%A8re_(t%C3%A9l%C3%A9film)</t>
+          <t>L'Amour_d'une_mère_(téléfilm)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,7 +609,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mary-Louise Parker (VF : Rafaèle Moutier) : Corrine Morgan-Thomas, la mère
 Aidan Quinn (VF : Patrick Borg) : Douglas Thomas
@@ -617,7 +635,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%27Amour_d%27une_m%C3%A8re_(t%C3%A9l%C3%A9film)</t>
+          <t>L'Amour_d'une_mère_(téléfilm)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,9 +653,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Toutes les scènes du film ont été filmées à La Nouvelle-Orléans, en Louisiane[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toutes les scènes du film ont été filmées à La Nouvelle-Orléans, en Louisiane.
 </t>
         </is>
       </c>
@@ -648,7 +668,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>L%27Amour_d%27une_m%C3%A8re_(t%C3%A9l%C3%A9film)</t>
+          <t>L'Amour_d'une_mère_(téléfilm)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -668,10 +688,49 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Récompense
-Young Artist Awards 2005 : Meilleur téléfilm ou « special familiale »
-Nominations
-Primetime Emmy Awards 2005 : Meilleure musique pour une mini-série ou un téléfilm pour Joseph Conlan
+          <t>Récompense</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Young Artist Awards 2005 : Meilleur téléfilm ou « special familiale »</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>L'Amour_d'une_mère_(téléfilm)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Amour_d%27une_m%C3%A8re_(t%C3%A9l%C3%A9film)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Primetime Emmy Awards 2005 : Meilleure musique pour une mini-série ou un téléfilm pour Joseph Conlan
 Young Artist Awards 2005 : Meilleure prestation dans un téléfilm, mini-série ou special - Second rôle masculin pour Zac Efron</t>
         </is>
       </c>
